--- a/prueba29/prueba.xlsx
+++ b/prueba29/prueba.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\02_PROYECTOS\P00119-FFT (GESTAMP DURANGO)\09_Documentación\Compartido cliente\B.06390_FFT_PS_MB_VAN_EA_DF1.edb\DOC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enkro\P00106-ENKROSS_PRUEBA3_AUTOMATIZACION\prueba29\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2E6938F-B516-4076-8806-DCBE6CADC5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B3DF03E-A14F-4E90-A1DA-B6B8D0B7DEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="23040" windowHeight="12120" xr2:uid="{638A2939-82D3-48C5-A087-812DCC5A6768}"/>
+    <workbookView xWindow="3072" yWindow="3072" windowWidth="17280" windowHeight="9960" xr2:uid="{638A2939-82D3-48C5-A087-812DCC5A6768}"/>
   </bookViews>
   <sheets>
     <sheet name="ENK_PY Mangueras v1" sheetId="1" r:id="rId1"/>
@@ -17799,10 +17799,49 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="565c94a9-9f9d-407f-a547-016888b2b680"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4578e3cf-dc59-46b9-b473-9d64d86ba65a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BFDFE9C-EE05-4A85-9C43-AA664F3C06EA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BFDFE9C-EE05-4A85-9C43-AA664F3C06EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4578e3cf-dc59-46b9-b473-9d64d86ba65a"/>
+    <ds:schemaRef ds:uri="565c94a9-9f9d-407f-a547-016888b2b680"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38435818-F091-484F-A6CD-4DA10E084912}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38435818-F091-484F-A6CD-4DA10E084912}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CDA0517-3B86-4891-9CFD-B0FBC50F6320}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>